--- a/summer_2019_edited_csv/Copy of Driscoll _1999 _table1.xlsx
+++ b/summer_2019_edited_csv/Copy of Driscoll _1999 _table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Summer2019\id test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{177BB8D5-D1C1-450F-8BE4-3317960538E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC594C2-C3C5-4CBA-9D58-454F471EEEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="2160" windowWidth="17280" windowHeight="8976" xr2:uid="{5EB10C1E-1492-4EE0-90AD-A45A657E6CC6}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{5EB10C1E-1492-4EE0-90AD-A45A657E6CC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Amphipods</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Morone_mississippiensis_83_141_mm_366_1997_Mar_na_1997_Nov_na_lake_percWeight_percent_Driscoll&amp;Miranda_1999_JournalOfFreshwaterEcology_Eagle Lake_NA_total length_weekly_Driscoll, M. P., &amp; Miranda, L. E. (1999). Diet ecology of yellow bass, Morone mississippiensis, in an oxbow of the Mississippi River. Journal of Freshwater Ecology, 14(4), 477-486._tbl1</t>
-  </si>
-  <si>
-    <t>Morone_mississippiensis_83_141_mm_366_1997_Nov_na_lake_percWeight_percent_Driscoll&amp;Miranda_1999_JournalOfFreshwaterEcology_Eagle Lake_NA_total length_weekly_Driscoll, M. P., &amp; Miranda, L. E. (1999). Diet ecology of yellow bass, Morone mississippiensis, in an oxbow of the Mississippi River. Journal of Freshwater Ecology, 14(4), 477-486._tbl1</t>
   </si>
 </sst>
 </file>
@@ -489,7 +486,7 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
@@ -498,7 +495,7 @@
         <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
